--- a/biology/Botanique/Ampelodesmos_mauritanicus/Ampelodesmos_mauritanicus.xlsx
+++ b/biology/Botanique/Ampelodesmos_mauritanicus/Ampelodesmos_mauritanicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ampelodesmos mauritanicus, aussi appelé ampélodesme de Mauritanie, ampélodesme tenace ou diss[2],[3], est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), originaire du bassin méditerranéen. 
-C'est la seule espèce du genre Ampelodesmos (genre monotypique)[4], lui-même unique genre de la tribu des Ampelodesmeae (tribu monotypique).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ampelodesmos mauritanicus, aussi appelé ampélodesme de Mauritanie, ampélodesme tenace ou diss est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), originaire du bassin méditerranéen. 
+C'est la seule espèce du genre Ampelodesmos (genre monotypique), lui-même unique genre de la tribu des Ampelodesmeae (tribu monotypique).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Ampelodesmos est formé de deux racines grecques : ampelos, « vigne », et desmos, « lien », en référence à son utilisation ancienne comme sorte de ficelle pour attacher la vigne[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Ampelodesmos est formé de deux racines grecques : ampelos, « vigne », et desmos, « lien », en référence à son utilisation ancienne comme sorte de ficelle pour attacher la vigne.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ampelodesmos mauritanicus est une plante herbacée robuste, vivace, rhizomateuse, qui peut atteindre de 2 à 3 m de haut[2]. L'espèce est géophyte à rhizomes courts et est fortement cespiteuse. Les feuilles sont rudes au toucher, la ligule est membraneuse, lancéolée et à bord cilié. L'inflorescence est une panicule d'épillets de 2 à 5 fleurs. Les glumes légèrement inégales sont souvent rougeâtres. Les glumelles présentent des poils.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ampelodesmos mauritanicus est une plante herbacée robuste, vivace, rhizomateuse, qui peut atteindre de 2 à 3 m de haut. L'espèce est géophyte à rhizomes courts et est fortement cespiteuse. Les feuilles sont rudes au toucher, la ligule est membraneuse, lancéolée et à bord cilié. L'inflorescence est une panicule d'épillets de 2 à 5 fleurs. Les glumes légèrement inégales sont souvent rougeâtres. Les glumelles présentent des poils.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 juillet 2016)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 juillet 2016) :
 Ampelodesmos ampelodesmos (Cirillo) Kerguélen, nom. inval.
 Ampelodesmos bicolor (Poir.) Kunth
 Ampelodesmos effusus Steud.
